--- a/doc/ProjectTimeline.xlsx
+++ b/doc/ProjectTimeline.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikosomos/UofA/ECE301/GroupProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikosomos/UofA/ECE301/GroupProject/StylePoints/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Use Case Name</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Project 4</t>
+  </si>
+  <si>
+    <t>Stylepoints - CMPUT 301 Group 21</t>
   </si>
 </sst>
 </file>
@@ -100,12 +103,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1009]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -160,14 +178,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -177,8 +256,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J2"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,292 +568,308 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="21"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F2" s="6"/>
+      <c r="G2" s="21"/>
+      <c r="I2" s="6"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="J1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C2" s="12">
+      <c r="F3" s="6"/>
+      <c r="G3" s="21"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13">
         <f>DATE(2017,10,16)</f>
         <v>43024</v>
       </c>
-      <c r="D2" s="12">
-        <f>C2+7</f>
+      <c r="D4" s="13">
+        <f>C4+7</f>
         <v>43031</v>
       </c>
-      <c r="E2" s="12">
-        <f t="shared" ref="E2:J2" si="0">D2+7</f>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:J4" si="0">D4+7</f>
         <v>43038</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F4" s="14">
         <f t="shared" si="0"/>
         <v>43045</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G4" s="13">
         <f t="shared" si="0"/>
         <v>43052</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H4" s="13">
         <f t="shared" si="0"/>
         <v>43059</v>
       </c>
-      <c r="I2" s="12">
-        <f t="shared" si="0"/>
+      <c r="I4" s="14">
+        <f>H4+7</f>
         <v>43066</v>
       </c>
-      <c r="J2" s="13">
-        <f t="shared" si="0"/>
-        <v>43073</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="8"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="4"/>
-      <c r="J5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>7</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="8"/>
-      <c r="J6" s="7"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="4"/>
-      <c r="J8" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>12</v>
+      </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="23"/>
       <c r="H9" s="4"/>
-      <c r="J9" s="7"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G13" s="7"/>
-      <c r="J13" s="7"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="E14" s="4"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F15" s="6"/>
+      <c r="G15" s="21"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
         <v>3</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="G14" s="7"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C16" s="2"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="21"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B17">
         <v>4</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="G15" s="7"/>
-      <c r="J15" s="7"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G16" s="7"/>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C17" s="2"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="21"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="6"/>
+      <c r="G18" s="21"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="B19">
         <v>14</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G18" s="7"/>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F20" s="6"/>
+      <c r="G20" s="21"/>
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="B21">
         <v>13</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="11"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G20" s="7"/>
-      <c r="J20" s="7"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G21" s="7"/>
-      <c r="J21" s="7"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G22" s="7" t="s">
+      <c r="F21" s="10"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F22" s="6"/>
+      <c r="G22" s="21"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F23" s="6"/>
+      <c r="G23" s="21"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="I24" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B26" s="16">
         <f>DATE(2017,10,16)</f>
         <v>43024</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B27" s="18">
         <f>DATE(2017,12,4)</f>
         <v>43073</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="2">
-        <f>(B25-B24)/7</f>
+      <c r="B28" s="20">
+        <f>(B27-B26)/7</f>
         <v>7</v>
       </c>
     </row>

--- a/doc/ProjectTimeline.xlsx
+++ b/doc/ProjectTimeline.xlsx
@@ -606,7 +606,7 @@
         <v>43031</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:J4" si="0">D4+7</f>
+        <f t="shared" ref="E4:H4" si="0">D4+7</f>
         <v>43038</v>
       </c>
       <c r="F4" s="14">

--- a/doc/ProjectTimeline.xlsx
+++ b/doc/ProjectTimeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19440" tabRatio="500"/>
+    <workbookView xWindow="16840" yWindow="0" windowWidth="16760" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -555,7 +555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>

--- a/doc/ProjectTimeline.xlsx
+++ b/doc/ProjectTimeline.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16840" yWindow="0" windowWidth="16760" windowHeight="21000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Use Case Name</t>
   </si>
@@ -68,12 +68,6 @@
     <t>LoginUser</t>
   </si>
   <si>
-    <t>Social</t>
-  </si>
-  <si>
-    <t>Geolocation</t>
-  </si>
-  <si>
     <t>Importance Rank</t>
   </si>
   <si>
@@ -96,6 +90,24 @@
   </si>
   <si>
     <t>Stylepoints - CMPUT 301 Group 21</t>
+  </si>
+  <si>
+    <t>SendFollowRequest</t>
+  </si>
+  <si>
+    <t>AcceptFollowRequest</t>
+  </si>
+  <si>
+    <t>DenyFollowerRequest</t>
+  </si>
+  <si>
+    <t>ViewFoloweeHabit</t>
+  </si>
+  <si>
+    <t>FoloweeGeolocation</t>
+  </si>
+  <si>
+    <t>SelfGeolocation</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -240,17 +252,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -276,6 +296,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,31 +585,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="10" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="21"/>
-      <c r="I1" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="F1" s="5"/>
+      <c r="G1" s="20"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F2" s="6"/>
-      <c r="G2" s="21"/>
-      <c r="I2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="20"/>
+      <c r="I2" s="5"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -585,43 +617,43 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="21"/>
-      <c r="I3" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="20"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12">
         <f>DATE(2017,10,16)</f>
         <v>43024</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <f>C4+7</f>
         <v>43031</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <f t="shared" ref="E4:H4" si="0">D4+7</f>
         <v>43038</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <f t="shared" si="0"/>
         <v>43045</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f t="shared" si="0"/>
         <v>43052</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <f t="shared" si="0"/>
         <v>43059</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="13">
         <f>H4+7</f>
         <v>43066</v>
       </c>
@@ -636,10 +668,10 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="22"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -650,10 +682,10 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -664,10 +696,10 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -679,10 +711,10 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="22"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -692,10 +724,10 @@
         <v>12</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="23"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="6"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -706,10 +738,10 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -720,10 +752,10 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -733,10 +765,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="4"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="6"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -746,12 +778,12 @@
         <v>10</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F13" s="8"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -759,117 +791,158 @@
         <v>11</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="23"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="22"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="6"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F15" s="6"/>
-      <c r="G15" s="21"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A15" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="B15" s="29">
         <v>3</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="21"/>
-      <c r="I16" s="6"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="11">
+        <v>4</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="21"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="29">
+        <v>14</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F18" s="6"/>
-      <c r="G18" s="21"/>
-      <c r="I18" s="6"/>
+      <c r="A18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="20">
+        <v>15</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="28"/>
+    </row>
+    <row r="20" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="29">
         <v>13</v>
       </c>
-      <c r="B19">
-        <v>14</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F20" s="6"/>
-      <c r="G20" s="21"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21">
-        <v>13</v>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F22" s="6"/>
-      <c r="G22" s="21"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F23" s="6"/>
-      <c r="G23" s="21"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="16">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="34"/>
+    </row>
+    <row r="22" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="36"/>
+    </row>
+    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="15">
         <f>DATE(2017,10,16)</f>
         <v>43024</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="18">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="17">
         <f>DATE(2017,12,4)</f>
         <v>43073</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="20">
-        <f>(B27-B26)/7</f>
+    <row r="27" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="19">
+        <f>(B26-B25)/7</f>
         <v>7</v>
       </c>
     </row>
